--- a/validatiefouten.xlsx
+++ b/validatiefouten.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>NMSE</t>
   </si>
@@ -30,42 +31,89 @@
     <t>score</t>
   </si>
   <si>
+    <t>Benchmark 1</t>
+  </si>
+  <si>
+    <t>Benchmark 2</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>15 det</t>
+  </si>
+  <si>
+    <t>99 det</t>
+  </si>
+  <si>
+    <t>RR (20)</t>
+  </si>
+  <si>
+    <t>RR (5)</t>
+  </si>
+  <si>
+    <t>1079 det</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>buy-hold</t>
+  </si>
+  <si>
+    <t>Bench 1</t>
+  </si>
+  <si>
+    <t>Bench 2</t>
+  </si>
+  <si>
+    <t>RR 15</t>
+  </si>
+  <si>
+    <t>RR 99</t>
+  </si>
+  <si>
+    <t>RR 1079</t>
+  </si>
+  <si>
+    <t>RR 1505</t>
+  </si>
+  <si>
     <t>GP 15</t>
   </si>
   <si>
     <t>GP 99</t>
   </si>
   <si>
-    <t>LR 15</t>
-  </si>
-  <si>
-    <t>LR 99</t>
-  </si>
-  <si>
-    <t>LR  1505</t>
-  </si>
-  <si>
-    <t>RR 15</t>
-  </si>
-  <si>
-    <t>RR 99</t>
-  </si>
-  <si>
-    <t>RR 1505</t>
-  </si>
-  <si>
-    <t>GP 191</t>
+    <t>GP 1079</t>
+  </si>
+  <si>
+    <t>GP 1505</t>
+  </si>
+  <si>
+    <t>RR (1000)</t>
+  </si>
+  <si>
+    <t>1505 det</t>
+  </si>
+  <si>
+    <t>RR (1500)</t>
+  </si>
+  <si>
+    <t>NCR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,9 +123,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,17 +169,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -122,10 +230,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -140,7 +248,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Validatie NMSE</a:t>
+              <a:t>Voorspelling met 15 determinanten</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,7 +268,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$3</c:f>
+              <c:f>Blad1!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -172,71 +280,115 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$4:$A$12</c:f>
+              <c:f>Blad1!$I$6:$I$9</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GP 15</c:v>
+                  <c:v>Benchmark 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GP 99</c:v>
+                  <c:v>Benchmark 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GP 191</c:v>
+                  <c:v>RR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LR 15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LR 99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LR  1505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>RR 15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>RR 99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RR 1505</c:v>
+                  <c:v>GP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$4:$B$12</c:f>
+              <c:f>Blad1!$J$6:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.1365</c:v>
+                  <c:v>0.933823098987298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.2966</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>47.1337992363</c:v>
+                  <c:v>2.214722238482702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.896505297664345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5141853813</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.9976223525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>179.192830205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.024447096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.8006488286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.751002036</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hitrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.071441409058231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.893961179007908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.057620416966211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.07115398363848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.635330487933273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.086146689727133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,20 +403,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2084285352"/>
-        <c:axId val="2085434184"/>
+        <c:axId val="2107013688"/>
+        <c:axId val="2107006024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2084285352"/>
+        <c:axId val="2107013688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085434184"/>
+        <c:crossAx val="2107006024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -272,22 +424,46 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085434184"/>
+        <c:axId val="2107006024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Score relatief t.o.v. GP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084285352"/>
+        <c:crossAx val="2107013688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -307,10 +483,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -325,7 +501,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Validatie hitrate</a:t>
+              <a:t>Voorspelling met 99 determinanten</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -345,11 +521,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$3</c:f>
+              <c:f>Blad1!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hitrate</c:v>
+                  <c:v>NMSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -357,71 +533,115 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$4:$A$12</c:f>
+              <c:f>Blad1!$I$6:$I$9</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GP 15</c:v>
+                  <c:v>Benchmark 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GP 99</c:v>
+                  <c:v>Benchmark 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GP 191</c:v>
+                  <c:v>RR</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LR 15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LR 99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LR  1505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>RR 15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>RR 99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RR 1505</c:v>
+                  <c:v>GP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$4:$C$12</c:f>
+              <c:f>Blad1!$J$14:$J$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54375</c:v>
+                  <c:v>0.874588815789474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5375</c:v>
+                  <c:v>2.074237938596491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.538020833333</c:v>
+                  <c:v>0.852713815789474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.494791666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.519791666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.511979166667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.552604166667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.564583333333</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hitrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.086477127756515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.906506287588846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.081793329688354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.114572528104893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.661083204594513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.126342573433734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,20 +656,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2086696184"/>
-        <c:axId val="2086694472"/>
+        <c:axId val="-1969821800"/>
+        <c:axId val="-1969797880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2086696184"/>
+        <c:axId val="-1969821800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086694472"/>
+        <c:crossAx val="-1969797880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,207 +677,46 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086694472"/>
+        <c:axId val="-1969797880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Score relatief t.o.v. GP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086696184"/>
+        <c:crossAx val="-1969821800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Validatie score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$A$4:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>GP 15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GP 99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GP 191</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LR 15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LR 99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LR  1505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>RR 15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>RR 99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RR 1505</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$D$4:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.156727482323882</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.133196338900018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.106839863033628</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.178585708050131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.180254840561214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0534522302056709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.188039991171507</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.193226505807496</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19563802291878</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2089038600"/>
-        <c:axId val="2088971448"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2089038600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088971448"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2088971448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089038600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -674,20 +733,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafiek 5"/>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -704,21 +763,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafiek 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -727,36 +788,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafiek 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1087,307 +1118,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H24"/>
+  <dimension ref="B4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>22.136500000000002</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.54374999999999996</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SQRT(C4/B4)</f>
-        <v>0.15672748232388237</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="D6">
+        <f>15.9525/15</f>
+        <v>1.0635000000000001</v>
+      </c>
+      <c r="E6">
+        <f>0.59615</f>
+        <v>0.59614999999999996</v>
+      </c>
+      <c r="F6">
+        <f>(E6/D6)^0.5</f>
+        <v>0.7487020582176287</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>D6/$D$9</f>
+        <v>0.93382309898729754</v>
+      </c>
+      <c r="K6">
+        <f>E6/$E$9</f>
+        <v>1.0714414090582314</v>
+      </c>
+      <c r="L6">
+        <f>F6/$F$9</f>
+        <v>1.0711539836384791</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>30.296600000000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" ref="D5:D12" si="0">SQRT(C5/B5)</f>
-        <v>0.13319633890001845</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="D7">
+        <f>37.8341/15</f>
+        <v>2.5222733333333331</v>
+      </c>
+      <c r="E7">
+        <f>0.4974</f>
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F9" si="0">(E7/D7)^0.5</f>
+        <v>0.44407550289669157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f>D7/$D$9</f>
+        <v>2.2147222384827021</v>
+      </c>
+      <c r="K7">
+        <f>E7/$E$9</f>
+        <v>0.89396117900790795</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L9" si="1">F7/$F$9</f>
+        <v>0.6353304879332734</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E8">
+        <f>0.58846</f>
+        <v>0.58845999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.75918147581611284</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>D8/$D$9</f>
+        <v>0.89650529766434472</v>
+      </c>
+      <c r="K8">
+        <f>E8/$E$9</f>
+        <v>1.0576204169662113</v>
+      </c>
+      <c r="L8">
+        <f>F8/$F$9</f>
+        <v>1.0861466897271335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>17.083/15</f>
+        <v>1.1388666666666665</v>
+      </c>
+      <c r="E9">
+        <f>0.5564</f>
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.69896772047138289</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f>D9/$D$9</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>E9/$E$9</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>15.9525/15</f>
+        <v>1.0635000000000001</v>
+      </c>
+      <c r="E14">
+        <f>0.59615</f>
+        <v>0.59614999999999996</v>
+      </c>
+      <c r="F14">
+        <f>(E14/D14)^0.5</f>
+        <v>0.7487020582176287</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f>D14/$D$17</f>
+        <v>0.87458881578947378</v>
+      </c>
+      <c r="K14">
+        <f>E14/$E$17</f>
+        <v>1.0864771277565153</v>
+      </c>
+      <c r="L14">
+        <f>F14/$F$17</f>
+        <v>1.1145725281048933</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>37.8341/15</f>
+        <v>2.5222733333333331</v>
+      </c>
+      <c r="E15">
+        <f>0.4974</f>
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F17" si="2">(E15/D15)^0.5</f>
+        <v>0.44407550289669157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>D15/$D$17</f>
+        <v>2.0742379385964913</v>
+      </c>
+      <c r="K15">
+        <f>E15/$E$17</f>
+        <v>0.90650628758884644</v>
+      </c>
+      <c r="L15">
+        <f>F15/$F$17</f>
+        <v>0.66108320459451264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.59358</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.75660845904916674</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f>D16/$D$17</f>
+        <v>0.85271381578947369</v>
+      </c>
+      <c r="K16">
+        <f>E16/$E$17</f>
+        <v>1.0817933296883544</v>
+      </c>
+      <c r="L16">
+        <f>F16/$F$17</f>
+        <v>1.1263425734337342</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f>18.24/15</f>
+        <v>1.216</v>
+      </c>
+      <c r="E17">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.67173919986225228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f>D17/$D$17</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>E17/$E$17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>F17/$F$17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>47.1337992363</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.53802083333299999</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SQRT(C6/B6)</f>
-        <v>0.10683986303362816</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>15.514185381300001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.49479166666699997</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1785857080501306</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    </row>
+    <row r="21" spans="2:12">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>15.9525/15</f>
+        <v>1.0635000000000001</v>
+      </c>
+      <c r="E22">
+        <f>0.59615</f>
+        <v>0.59614999999999996</v>
+      </c>
+      <c r="F22">
+        <f>(E22/D22)^0.5</f>
+        <v>0.7487020582176287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f>37.8341/15</f>
+        <v>2.5222733333333331</v>
+      </c>
+      <c r="E23">
+        <f>0.4974</f>
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F25" si="3">(E23/D23)^0.5</f>
+        <v>0.44407550289669157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <f>1.0465</f>
+        <v>1.0465</v>
+      </c>
+      <c r="E24">
+        <f>0.5859</f>
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.74824208698507866</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>15.997622352500001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.51979166666700005</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18025484056121449</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>179.19283020500001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.51197916666700005</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>5.3452230205670935E-2</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>15.024447095999999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18803999117150702</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>14.8006488286</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.55260416666699996</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19322650580749615</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>14.751002035999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.56458333333300004</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19563802291877999</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f>15.9525/15</f>
+        <v>1.0635000000000001</v>
+      </c>
+      <c r="E30">
+        <f>0.59615</f>
+        <v>0.59614999999999996</v>
+      </c>
+      <c r="F30">
+        <f>(E30/D30)^0.5</f>
+        <v>0.7487020582176287</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f>37.8341/15</f>
+        <v>2.5222733333333331</v>
+      </c>
+      <c r="E31">
+        <f>0.4974</f>
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F32" si="4">(E31/D31)^0.5</f>
+        <v>0.44407550289669157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <f>1.0465</f>
+        <v>1.0465</v>
+      </c>
+      <c r="E32">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.7521270998912527</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1395,4 +1584,149 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D5">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f>-0.138</f>
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="D6">
+        <f>-0.757</f>
+        <v>-0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.74</v>
+      </c>
+      <c r="D7">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.61</v>
+      </c>
+      <c r="D8">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0.222</v>
+      </c>
+      <c r="D11">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0.44</v>
+      </c>
+      <c r="D12">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" ht="23">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="25" spans="9:9" ht="37">
+      <c r="I25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>